--- a/biology/Botanique/Vignoble_de_l'Entre-deux-Mers/Vignoble_de_l'Entre-deux-Mers.xlsx
+++ b/biology/Botanique/Vignoble_de_l'Entre-deux-Mers/Vignoble_de_l'Entre-deux-Mers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vignoble_de_l%27Entre-deux-Mers</t>
+          <t>Vignoble_de_l'Entre-deux-Mers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble de l'Entre-deux-Mers est une région du vignoble de Bordeaux, situé entre la Garonne et la Dordogne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vignoble_de_l%27Entre-deux-Mers</t>
+          <t>Vignoble_de_l'Entre-deux-Mers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les couches géologiques sont en très légères pentes vers le sud-ouest ; si les molasses du Fronsadais affleurent au nord-est sur la rive gauche de la Dordogne avec les calcaires à Astéries de l'Oligocène par-dessus, au sud sur la rive droite de la Garonne ces calcaires forment le bas du coteau, recouverts par les marnes de l'Oligocène, le calcaire gréseux du Burdigalien (Miocène inférieur) et des argiles à gravier (Pliocène).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vignoble_de_l%27Entre-deux-Mers</t>
+          <t>Vignoble_de_l'Entre-deux-Mers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La région de l'Entre-deux-Mers produit principalement sous l'appellation générique bordeaux, que ce soit en rouge, en rosé ou en blanc (au sein duquel se distingue la dénomination bordeaux-haut-benauge), auquel se rajoutent de vastes appellations uniquement en blanc :
 entre-deux-mers ;
